--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nlgn1-Nrxn1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nlgn1-Nrxn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Nlgn1</t>
   </si>
   <si>
     <t>Nrxn1</t>
   </si>
   <si>
-    <t>MuSCs</t>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,40 +540,40 @@
         <v>0.056076</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1532734190501181</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1532734190501181</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.01189366666666667</v>
+        <v>0.006517333333333333</v>
       </c>
       <c r="N2">
-        <v>0.035681</v>
+        <v>0.019552</v>
       </c>
       <c r="O2">
-        <v>0.03169404731767329</v>
+        <v>0.004697037253424763</v>
       </c>
       <c r="P2">
-        <v>0.03169404731767329</v>
+        <v>0.004697037253424762</v>
       </c>
       <c r="Q2">
-        <v>0.0002223164173333333</v>
+        <v>0.0001218219946666667</v>
       </c>
       <c r="R2">
-        <v>0.002000847756</v>
+        <v>0.001096397952</v>
       </c>
       <c r="S2">
-        <v>0.03169404731767329</v>
+        <v>0.0007199309592381893</v>
       </c>
       <c r="T2">
-        <v>0.03169404731767329</v>
+        <v>0.0007199309592381892</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,40 +602,288 @@
         <v>0.056076</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1532734190501181</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1532734190501181</v>
       </c>
       <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.01189366666666667</v>
+      </c>
+      <c r="N3">
+        <v>0.035681</v>
+      </c>
+      <c r="O3">
+        <v>0.008571756661182945</v>
+      </c>
+      <c r="P3">
+        <v>0.008571756661182945</v>
+      </c>
+      <c r="Q3">
+        <v>0.0002223164173333333</v>
+      </c>
+      <c r="R3">
+        <v>0.002000847756</v>
+      </c>
+      <c r="S3">
+        <v>0.001313822450725134</v>
+      </c>
+      <c r="T3">
+        <v>0.001313822450725134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.018692</v>
+      </c>
+      <c r="H4">
+        <v>0.056076</v>
+      </c>
+      <c r="I4">
+        <v>0.1532734190501181</v>
+      </c>
+      <c r="J4">
+        <v>0.1532734190501181</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1.369130333333333</v>
+      </c>
+      <c r="N4">
+        <v>4.107391</v>
+      </c>
+      <c r="O4">
+        <v>0.9867312060853923</v>
+      </c>
+      <c r="P4">
+        <v>0.9867312060853922</v>
+      </c>
+      <c r="Q4">
+        <v>0.02559178419066667</v>
+      </c>
+      <c r="R4">
+        <v>0.230326057716</v>
+      </c>
+      <c r="S4">
+        <v>0.1512396656401548</v>
+      </c>
+      <c r="T4">
+        <v>0.1512396656401547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.10326</v>
+      </c>
+      <c r="H5">
+        <v>0.30978</v>
+      </c>
+      <c r="I5">
+        <v>0.846726580949882</v>
+      </c>
+      <c r="J5">
+        <v>0.8467265809498818</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="L3">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M3">
-        <v>0.3633713333333333</v>
-      </c>
-      <c r="N3">
-        <v>1.090114</v>
-      </c>
-      <c r="O3">
-        <v>0.9683059526823267</v>
-      </c>
-      <c r="P3">
-        <v>0.9683059526823267</v>
-      </c>
-      <c r="Q3">
-        <v>0.006792136962666667</v>
-      </c>
-      <c r="R3">
-        <v>0.061129232664</v>
-      </c>
-      <c r="S3">
-        <v>0.9683059526823267</v>
-      </c>
-      <c r="T3">
-        <v>0.9683059526823267</v>
+      <c r="M5">
+        <v>0.006517333333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.019552</v>
+      </c>
+      <c r="O5">
+        <v>0.004697037253424763</v>
+      </c>
+      <c r="P5">
+        <v>0.004697037253424762</v>
+      </c>
+      <c r="Q5">
+        <v>0.00067297984</v>
+      </c>
+      <c r="R5">
+        <v>0.00605681856</v>
+      </c>
+      <c r="S5">
+        <v>0.003977106294186574</v>
+      </c>
+      <c r="T5">
+        <v>0.003977106294186573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.10326</v>
+      </c>
+      <c r="H6">
+        <v>0.30978</v>
+      </c>
+      <c r="I6">
+        <v>0.846726580949882</v>
+      </c>
+      <c r="J6">
+        <v>0.8467265809498818</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.01189366666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.035681</v>
+      </c>
+      <c r="O6">
+        <v>0.008571756661182945</v>
+      </c>
+      <c r="P6">
+        <v>0.008571756661182945</v>
+      </c>
+      <c r="Q6">
+        <v>0.00122814002</v>
+      </c>
+      <c r="R6">
+        <v>0.01105326018</v>
+      </c>
+      <c r="S6">
+        <v>0.007257934210457811</v>
+      </c>
+      <c r="T6">
+        <v>0.00725793421045781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.10326</v>
+      </c>
+      <c r="H7">
+        <v>0.30978</v>
+      </c>
+      <c r="I7">
+        <v>0.846726580949882</v>
+      </c>
+      <c r="J7">
+        <v>0.8467265809498818</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.369130333333333</v>
+      </c>
+      <c r="N7">
+        <v>4.107391</v>
+      </c>
+      <c r="O7">
+        <v>0.9867312060853923</v>
+      </c>
+      <c r="P7">
+        <v>0.9867312060853922</v>
+      </c>
+      <c r="Q7">
+        <v>0.14137639822</v>
+      </c>
+      <c r="R7">
+        <v>1.27238758398</v>
+      </c>
+      <c r="S7">
+        <v>0.8354915404452377</v>
+      </c>
+      <c r="T7">
+        <v>0.8354915404452374</v>
       </c>
     </row>
   </sheetData>
